--- a/uploads/CT015-3-2-DMTD-112023-SLS-Pre-_CLO.xlsx
+++ b/uploads/CT015-3-2-DMTD-112023-SLS-Pre-_CLO.xlsx
@@ -556,52 +556,52 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>CLO1</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>CLO1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>CLO2</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>CLO2</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>CLO2</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>CLO3</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>CLO3</t>
+          <t>CLO5</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>CLO4</t>
+          <t>CLO5</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>CLO4</t>
+          <t>CLO5</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>CLO5</t>
+          <t>CLO6</t>
         </is>
       </c>
     </row>
